--- a/Luban/MiniTemplate/Datas/turntableConfig.xlsx
+++ b/Luban/MiniTemplate/Datas/turntableConfig.xlsx
@@ -763,7 +763,7 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="0">
-    <open main="35" threadCnt="1"/>
+    <open main="51" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="1">
         <open threadCnt="1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1105,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1113,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/turntableConfig.xlsx
+++ b/Luban/MiniTemplate/Datas/turntableConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>##var</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>money</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>##type</t>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>奖励倍数</t>
+  </si>
+  <si>
+    <t>权重</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="0">
-    <open main="51" threadCnt="1"/>
+    <open main="39" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="1">
         <open threadCnt="1"/>
@@ -1038,15 +1044,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,80 +1062,107 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>160</v>
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
